--- a/data/tmpl/StdUsrInfoTmpl.xlsx
+++ b/data/tmpl/StdUsrInfoTmpl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Website\data\tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B2BBCF-7E20-47BB-802C-F1A70FE948F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871A3152-567B-4202-B786-60D87D92F585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所有单元格格式位文本格式与数字格式，请勿修改单元格格式。
 入学年份字段的格式为4个长度的数字格式字符，例如：2022。
 学生用户的默认密码为：std+学生ID，例如：std181400000001。</t>
@@ -524,6 +520,10 @@
   </si>
   <si>
     <t>专业名称(简称)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -983,7 +983,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="2" spans="1:7" ht="55.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1029,16 +1029,16 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1099,578 +1099,578 @@
   <sheetData>
     <row r="1" spans="1:14" s="6" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I1" s="11"/>
       <c r="J1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L1" s="11"/>
       <c r="M1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L2" s="13"/>
       <c r="M2" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="7:13" ht="16.2" x14ac:dyDescent="0.25">
